--- a/data/Total.xlsx
+++ b/data/Total.xlsx
@@ -9,27 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="20 02 2017" sheetId="3" r:id="rId1"/>
     <sheet name="21 02 2017" sheetId="2" r:id="rId2"/>
     <sheet name="22 02 2017" sheetId="1" r:id="rId3"/>
+    <sheet name="23 02 2017" sheetId="4" r:id="rId4"/>
+    <sheet name="24 02 2017" sheetId="6" r:id="rId5"/>
+    <sheet name="27 02 2017" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
   <si>
     <t>Critère</t>
   </si>
   <si>
     <t>Pondération</t>
-  </si>
-  <si>
-    <t>Note(de -1 à 1)</t>
   </si>
   <si>
     <t>Result</t>
@@ -142,20 +142,6 @@
   </si>
   <si>
     <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; 100</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>M</t>
     </r>
     <r>
@@ -240,12 +226,140 @@
     <t>Signal croisse au dessus de  MACD</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ours entre bSup et bInf</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rien</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA5 au dessous de MA20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal proche de MACD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11h30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cours au dessous de bInf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA5 au dessous de MA20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal dessous de MACD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSI proche de 30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13h30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>j &gt; 100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA5 decent et s'approche de MA20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>signal decent et s'approche de MACD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SI proche de 50</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>k, d proche de 0, cours pourrait remonter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rien</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -290,6 +404,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -320,10 +453,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -345,9 +479,23 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -675,20 +823,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <v>0.38</v>
@@ -704,33 +852,33 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-0.28130000000000005</v>
+        <v>-0.18360000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="9">
         <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(D11:D15)</f>
-        <v>-0.60000000000000009</v>
+        <v>-0.4</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" si="0"/>
-        <v>-0.13500000000000004</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9">
         <v>0.22500000000000001</v>
@@ -749,18 +897,18 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="9">
         <v>0.17</v>
       </c>
       <c r="C5" s="9">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.85</v>
+        <v>-0.54</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14450000000000002</v>
+        <v>-9.1800000000000007E-2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -804,26 +952,26 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
         <v>0.2</v>
@@ -836,34 +984,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
         <v>0.2</v>
       </c>
       <c r="C12" s="7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
         <v>0.2</v>
@@ -876,14 +1024,14 @@
         <v>-0.2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
         <v>0.2</v>
@@ -896,14 +1044,14 @@
         <v>-0.2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
         <v>0.2</v>
@@ -916,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -949,27 +1097,27 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>22</v>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9">
         <v>0.2</v>
@@ -987,7 +1135,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9">
         <v>0.2</v>
@@ -1005,7 +1153,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="9">
         <v>0.2</v>
@@ -1023,7 +1171,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="9">
         <v>0.2</v>
@@ -1041,7 +1189,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9">
         <v>0.2</v>
@@ -1068,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1082,20 +1230,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <v>0.38</v>
@@ -1111,12 +1259,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9">
         <f ca="1">SUM(D2:D5)</f>
-        <v>4.2899999999999994E-2</v>
+        <v>0.25370000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="9">
         <v>0.22500000000000001</v>
@@ -1132,12 +1280,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9">
         <v>0.22500000000000001</v>
@@ -1156,18 +1304,18 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="9">
         <v>0.17</v>
       </c>
       <c r="C5" s="9">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.24</v>
+        <v>1</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0800000000000003E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1211,26 +1359,26 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
         <v>0.2</v>
@@ -1243,14 +1391,14 @@
         <v>0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
         <v>0.2</v>
@@ -1263,14 +1411,14 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
         <v>0.2</v>
@@ -1283,14 +1431,14 @@
         <v>0.06</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
         <v>0.2</v>
@@ -1303,14 +1451,14 @@
         <v>0.06</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
         <v>0.2</v>
@@ -1323,7 +1471,7 @@
         <v>0.06</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1356,27 +1504,27 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>23</v>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9">
         <v>0.2</v>
@@ -1394,7 +1542,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9">
         <v>0.2</v>
@@ -1412,7 +1560,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="9">
         <v>0.2</v>
@@ -1430,7 +1578,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="9">
         <v>0.2</v>
@@ -1448,7 +1596,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9">
         <v>0.2</v>
@@ -1475,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1489,20 +1637,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <v>0.38</v>
@@ -1518,12 +1666,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="8">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.14200000000000002</v>
+        <v>0.20150000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8">
         <v>0.22500000000000001</v>
@@ -1539,12 +1687,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8">
         <v>0.22500000000000001</v>
@@ -1563,18 +1711,18 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8">
         <v>0.17</v>
       </c>
       <c r="C5" s="8">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.28999999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9300000000000004E-2</v>
+        <v>0.10880000000000001</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1618,26 +1766,26 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
         <v>0.2</v>
@@ -1650,14 +1798,14 @@
         <v>0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
         <v>0.2</v>
@@ -1670,14 +1818,14 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
         <v>0.2</v>
@@ -1690,14 +1838,14 @@
         <v>0.06</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
         <v>0.2</v>
@@ -1710,14 +1858,14 @@
         <v>0.16000000000000003</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
         <v>0.2</v>
@@ -1730,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1763,35 +1911,35 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>23</v>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="8">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
         <v>0.2</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <f t="shared" ref="D20:D24" si="2">B20*C20</f>
         <v>0.2</v>
       </c>
@@ -1801,15 +1949,15 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
         <v>0.2</v>
       </c>
       <c r="C21" s="10">
         <v>-0.76</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <f t="shared" si="2"/>
         <v>-0.15200000000000002</v>
       </c>
@@ -1819,15 +1967,15 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="8">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
         <v>0.2</v>
       </c>
       <c r="C22" s="10">
         <v>-0.08</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <f t="shared" si="2"/>
         <v>-1.6E-2</v>
       </c>
@@ -1837,15 +1985,15 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="8">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
         <v>0.2</v>
       </c>
       <c r="C23" s="10">
         <v>-0.08</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <f t="shared" si="2"/>
         <v>-1.6E-2</v>
       </c>
@@ -1855,21 +2003,1251 @@
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="8">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
         <v>0.2</v>
       </c>
       <c r="C24" s="10">
         <v>-0.12</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <f t="shared" si="2"/>
         <v>-2.4E-2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.10830000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>-2.2500000000000003E-2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.78</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>0.13260000000000002</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-0.5</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>1.5899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>-1.8000000000000006E-2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.21</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C11</f>
+        <v>-0.2</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-0.5</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>2.9299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>-6.7500000000000018E-2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>9.8600000000000007E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>-0.2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-0.5</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/data/Total.xlsx
+++ b/data/Total.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Python\StockChooser\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\俊阳\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7440" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="20 02 2017" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,20 @@
     <sheet name="23 02 2017" sheetId="4" r:id="rId4"/>
     <sheet name="24 02 2017" sheetId="6" r:id="rId5"/>
     <sheet name="27 02 2017" sheetId="7" r:id="rId6"/>
+    <sheet name="28 02 2017" sheetId="14" r:id="rId7"/>
+    <sheet name="01 03 2017" sheetId="8" r:id="rId8"/>
+    <sheet name="02 03 2017" sheetId="9" r:id="rId9"/>
+    <sheet name="03 03 2017" sheetId="10" r:id="rId10"/>
+    <sheet name="06 03 2017" sheetId="11" r:id="rId11"/>
+    <sheet name="07 03 2017" sheetId="12" r:id="rId12"/>
+    <sheet name="08 03 2017" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="77">
   <si>
     <t>Critère</t>
   </si>
@@ -352,6 +359,114 @@
   </si>
   <si>
     <t>Rien</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15h45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>core</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>eason</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>core</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>eason</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15h20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -370,21 +485,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -457,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -490,6 +609,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -809,13 +940,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="A20:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -852,10 +983,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-0.18360000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.23800000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -876,7 +1007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -895,7 +1026,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -904,17 +1035,17 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.54</v>
+        <v>-0.86</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.1800000000000007E-2</v>
+        <v>-0.1462</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -923,7 +1054,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -932,7 +1063,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -941,7 +1072,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -950,7 +1081,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -969,7 +1100,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1120,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1140,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1160,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1180,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1200,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1078,7 +1209,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1087,7 +1218,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1096,7 +1227,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1246,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1133,7 +1264,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1151,7 +1282,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1169,7 +1300,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1318,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1209,6 +1340,1602 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="29">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>4.07E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="29">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="29">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="29">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="29">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="29">
+        <f ca="1">B5*C5</f>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="29">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>-0.16159999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="29">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="29">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="29">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="29">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.94</v>
+      </c>
+      <c r="D5" s="29">
+        <f ca="1">B5*C5</f>
+        <v>-0.1598</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="29">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>4.9999999999999975E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="29">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="29">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="29">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="29">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="29">
+        <f ca="1">B5*C5</f>
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="29">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.12399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="29">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="29">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="29">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="29">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.74</v>
+      </c>
+      <c r="D5" s="29">
+        <f ca="1">B5*C5</f>
+        <v>0.1258</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1220,9 +2947,9 @@
       <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +2968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1259,10 +2986,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.25370000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.2899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +3010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +3029,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1311,17 +3038,17 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>1</v>
+        <v>-0.24</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>-4.0800000000000003E-2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1330,7 +3057,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1339,7 +3066,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1348,7 +3075,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1357,7 +3084,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +3103,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1396,7 +3123,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1416,7 +3143,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +3163,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +3183,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +3203,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1485,7 +3212,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1494,7 +3221,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1503,7 +3230,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1522,7 +3249,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +3267,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +3285,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +3303,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -1594,7 +3321,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1627,9 +3354,9 @@
       <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +3375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1666,10 +3393,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="8">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.20150000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.1794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +3417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +3436,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1718,17 +3445,17 @@
       </c>
       <c r="C5" s="8">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10880000000000001</v>
+        <v>8.6700000000000013E-2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1737,7 +3464,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1746,7 +3473,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1755,7 +3482,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1764,7 +3491,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +3510,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1803,7 +3530,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1823,7 +3550,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1843,7 +3570,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1863,7 +3590,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1883,7 +3610,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1892,7 +3619,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1901,7 +3628,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1910,7 +3637,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1929,7 +3656,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1947,7 +3674,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1965,7 +3692,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1983,7 +3710,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -2001,7 +3728,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -2034,12 +3761,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +3785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2076,10 +3803,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.10830000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.3300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2100,7 +3827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2119,7 +3846,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2128,17 +3855,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.78</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.13260000000000002</v>
+        <v>4.760000000000001E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2147,7 +3874,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2156,7 +3883,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2165,7 +3892,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2174,7 +3901,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +3920,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -2213,7 +3940,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +3960,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -2253,7 +3980,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2273,7 +4000,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2293,7 +4020,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2302,7 +4029,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2311,7 +4038,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2320,7 +4047,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -2339,7 +4066,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -2357,7 +4084,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -2375,7 +4102,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -2393,7 +4120,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -2411,7 +4138,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -2444,12 +4171,12 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +4195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2486,10 +4213,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>1.5899999999999994E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-3.6800000000000013E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2510,7 +4237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2529,7 +4256,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2538,17 +4265,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.21</v>
+        <v>-0.1</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>3.5700000000000003E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2557,7 +4284,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2566,7 +4293,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2575,7 +4302,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2584,7 +4311,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2603,7 +4330,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -2623,7 +4350,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2643,7 +4370,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -2663,7 +4390,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +4410,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2703,7 +4430,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2712,7 +4439,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2721,7 +4448,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2730,7 +4457,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +4476,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -2767,7 +4494,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -2785,7 +4512,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -2803,7 +4530,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -2821,7 +4548,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -2854,12 +4581,12 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2878,7 +4605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2896,10 +4623,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>2.9299999999999979E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.9999999999996982E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2920,7 +4647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2939,7 +4666,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2948,17 +4675,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.57999999999999996</v>
+        <v>0.41</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>9.8600000000000007E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2967,7 +4694,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2976,7 +4703,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2985,7 +4712,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2994,7 +4721,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +4740,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -3033,7 +4760,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -3053,7 +4780,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -3073,7 +4800,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -3093,7 +4820,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -3113,7 +4840,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -3122,7 +4849,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3131,7 +4858,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3140,7 +4867,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -3159,7 +4886,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -3177,7 +4904,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3195,7 +4922,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -3213,7 +4940,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3231,7 +4958,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3254,4 +4981,1201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="29">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.1444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="29">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="29">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="29">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="29">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.86</v>
+      </c>
+      <c r="D5" s="29">
+        <f ca="1">B5*C5</f>
+        <v>0.1462</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="29">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>-0.1429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="29">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="29">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="29">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="29">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.83</v>
+      </c>
+      <c r="D5" s="29">
+        <f ca="1">B5*C5</f>
+        <v>-0.1411</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="29">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>6.1099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="29">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="29">
+        <f>SUM(D20:D24)</f>
+        <v>-8.000000000000014E-3</v>
+      </c>
+      <c r="D4" s="29">
+        <f>B4*C4</f>
+        <v>-1.8000000000000032E-3</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="29">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.37</v>
+      </c>
+      <c r="D5" s="29">
+        <f ca="1">B5*C5</f>
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.76</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15200000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.08</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>